--- a/data/Valparaíso.xlsx
+++ b/data/Valparaíso.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Valparaíso.xlsx
+++ b/data/Valparaíso.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Valparaíso.xlsx
+++ b/data/Valparaíso.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Valparaíso.xlsx
+++ b/data/Valparaíso.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Valparaíso.xlsx
+++ b/data/Valparaíso.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Valparaíso.xlsx
+++ b/data/Valparaíso.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Valparaíso.xlsx
+++ b/data/Valparaíso.xlsx
@@ -1940,7 +1940,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">

--- a/data/Valparaíso.xlsx
+++ b/data/Valparaíso.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Valparaíso.xlsx
+++ b/data/Valparaíso.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>24/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
